--- a/クリックポスト発送情報/20200904100132/英子日本发货表格9.3.xlsx
+++ b/クリックポスト発送情報/20200904100132/英子日本发货表格9.3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>序号</t>
   </si>
@@ -89,6 +89,14 @@
   </si>
   <si>
     <t>09048637686</t>
+  </si>
+  <si>
+    <t>628590213230</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>628590213226</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -252,7 +260,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -699,7 +707,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="99.9" customHeight="1"/>
@@ -1074,7 +1082,9 @@
       <c r="I2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:181" ht="121.95" customHeight="1">
       <c r="A3" s="12" t="s">
@@ -1099,7 +1109,9 @@
       <c r="I3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="20"/>
+      <c r="K3" s="20" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:181" ht="121.95" customHeight="1"/>
     <row r="5" spans="1:181" ht="121.95" customHeight="1"/>
